--- a/data/trans_bre/P2C_R1-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R1-Habitat-trans_bre.xlsx
@@ -660,24 +660,24 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9809671184732025</v>
+        <v>-0.9810223243667349</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3624609546133079</v>
+        <v>-0.4805929369385185</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.041730715958505</v>
+        <v>-3.009731529257286</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.551034252883959</v>
+        <v>-7.894332249632345</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
-      <c r="H5" s="6" t="n">
-        <v>-0.8054365614630364</v>
-      </c>
-      <c r="I5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="J5" s="6" t="n">
-        <v>-0.252299179130759</v>
+        <v>-0.2596897367741051</v>
       </c>
     </row>
     <row r="6">
@@ -688,22 +688,24 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9163503009669612</v>
+        <v>0.9221062285718066</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.182556398941657</v>
+        <v>1.942505401350462</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.2415467274299498</v>
+        <v>-0.09552859026692756</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.70478212222949</v>
+        <v>10.35915014732199</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
-      <c r="I6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>0.2981045933469875</v>
+      </c>
       <c r="J6" s="6" t="n">
-        <v>0.5628055995354325</v>
+        <v>0.5132025023775033</v>
       </c>
     </row>
     <row r="7">
@@ -750,24 +752,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.9906896797039383</v>
+        <v>-0.9438862392362021</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.7500275736571715</v>
+        <v>-0.7424149755502962</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.6444920495312129</v>
+        <v>-0.7031432941344519</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.492161577756638</v>
+        <v>-6.074632913200339</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8308161662932079</v>
-      </c>
-      <c r="H8" s="6" t="inlineStr"/>
-      <c r="I8" s="6" t="inlineStr"/>
+        <v>-0.779472324328767</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.9615447946991436</v>
+      </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3031943242425896</v>
+        <v>-0.3284968324250391</v>
       </c>
     </row>
     <row r="9">
@@ -778,22 +784,24 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.440142170279124</v>
+        <v>1.580703201106379</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9303431419521014</v>
+        <v>0.9191354955224303</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.224938845566</v>
+        <v>1.139468408658145</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.91353323258155</v>
+        <v>6.907089026270596</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
-      <c r="H9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>5.670940707098626</v>
+      </c>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>0.7838312461906699</v>
+        <v>0.7351581817702636</v>
       </c>
     </row>
     <row r="10">
@@ -817,7 +825,7 @@
         <v>0.7667495872309141</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-2.583037545530878</v>
+        <v>-2.583037545530882</v>
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
@@ -831,7 +839,7 @@
         <v>1.519409747649332</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1853467135025067</v>
+        <v>-0.1853467135025069</v>
       </c>
     </row>
     <row r="11">
@@ -842,26 +850,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2052329940904861</v>
+        <v>0.2059489918644487</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.558612247814059</v>
+        <v>-1.523296849768209</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3120011432836932</v>
+        <v>-0.3150484078750883</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-11.59222517552862</v>
+        <v>-11.82243826588461</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.870127275140446</v>
+        <v>-0.8799850857661519</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.7577933492709799</v>
+        <v>-0.7542879635628047</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5852156882492324</v>
+        <v>-0.56189430502188</v>
       </c>
     </row>
     <row r="12">
@@ -872,24 +880,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.946790435604111</v>
+        <v>2.012021476396924</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.416531594373962</v>
+        <v>1.380487978142088</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.14966419401894</v>
+        <v>2.24345239263594</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.95607726282027</v>
+        <v>4.766128146754137</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>3.700224579750625</v>
+        <v>4.237054153749226</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>0.6188572486013928</v>
+        <v>0.5525641154594348</v>
       </c>
     </row>
     <row r="13">
@@ -913,7 +921,7 @@
         <v>0.1640443535213986</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.774931695644987</v>
+        <v>4.774931695644985</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1672303189545195</v>
@@ -925,7 +933,7 @@
         <v>0.1413374021493038</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4122545176889745</v>
+        <v>0.4122545176889742</v>
       </c>
     </row>
     <row r="14">
@@ -936,28 +944,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.163224554243314</v>
+        <v>-1.38089322387905</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.8186637257270634</v>
+        <v>-0.7627122508748457</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.15647594710155</v>
+        <v>-1.129096665119948</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.394791807780607</v>
+        <v>-2.273938646917691</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8559104405648184</v>
+        <v>-1</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5317703051314892</v>
+        <v>-0.559393608933506</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6535450777494352</v>
+        <v>-0.6246351783823807</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1668569096018927</v>
+        <v>-0.1463641969897878</v>
       </c>
     </row>
     <row r="15">
@@ -968,28 +976,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9669912316724764</v>
+        <v>0.8822026772777287</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.024321943650724</v>
+        <v>2.069046693399578</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.459567146851501</v>
+        <v>1.403970410194223</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11.48038152323567</v>
+        <v>10.34586590130589</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.919206620701733</v>
+        <v>2.884690568372163</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.555832010826315</v>
+        <v>4.239102685528953</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.946248791129063</v>
+        <v>3.000606376996245</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.339880831321608</v>
+        <v>1.229884135374808</v>
       </c>
     </row>
     <row r="16">
@@ -1036,28 +1044,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.3177399080303786</v>
+        <v>-0.3576163865595522</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.2682037400090545</v>
+        <v>-0.1889479361557511</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.6052494393425474</v>
+        <v>-0.6160693664886299</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.452701505202136</v>
+        <v>-2.058811205630736</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4458216131284741</v>
+        <v>-0.4462830102525703</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2564959165795494</v>
+        <v>-0.2530947686910368</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4772092361088101</v>
+        <v>-0.4932397922633496</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1357213584861423</v>
+        <v>-0.1166203728620241</v>
       </c>
     </row>
     <row r="18">
@@ -1068,28 +1076,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7224546632735103</v>
+        <v>0.7335460444323803</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9629389726239732</v>
+        <v>1.000911581641821</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6307906269711604</v>
+        <v>0.6008280183293332</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.061794577759207</v>
+        <v>4.967872347147619</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.285466370977008</v>
+        <v>2.426197308645985</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.777648069251282</v>
+        <v>2.050893426869929</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.00296915515465</v>
+        <v>0.9477068567092483</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4014059449373492</v>
+        <v>0.3906104405583431</v>
       </c>
     </row>
     <row r="19">
